--- a/res_prem.xlsx
+++ b/res_prem.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Прострочки" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Выполнено" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Премия" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,330 +425,354 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="33" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Сотрудник</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Всего просрочек</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Месяц</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Количество прострочек за месяц</t>
-        </is>
-      </c>
+          <t>Просрочки</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Хаеретдинов Ильдар Рифович</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>46</v>
-      </c>
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
       <c r="C2" s="1" t="n"/>
       <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>36</v>
-      </c>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Сотрудник</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Всего просрочек</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Месяц</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Количество прострочек за месяц</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>9</v>
-      </c>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Хаеретдинов Ильдар Рифович</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="n"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Разумов Владислав Сергеевич</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="n"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n"/>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Разумов Владислав Сергеевич</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D9" s="1" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Денисенко Александр Михайлович</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="n"/>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Денисенко Александр Михайлович</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="n"/>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Саргсян Анна Львовна</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="n"/>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n"/>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Саргсян Анна Львовна</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="n"/>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Андросов Игорь Александрович</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n"/>
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="n"/>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n"/>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Андросов Игорь Александрович</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D20" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Остапенко Полина Николаевна</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E21" s="1" t="n"/>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Остапенко Полина Николаевна</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E23" s="1" t="n"/>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Жерновая Любовь Васильевна</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="n"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n"/>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Жерновая Любовь Васильевна</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D27" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Скоков Евгений Сергеевич</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="n"/>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Басов Юрий Викторович</t>
+          <t>Скоков Евгений Сергеевич</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n"/>
@@ -758,77 +781,84 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="n"/>
     </row>
     <row r="31" ht="20" customHeight="1">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Басов Юрий Викторович</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
     </row>
     <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Верхоломов Алексей Владимирович</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="n"/>
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="n"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="n"/>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Верхоломов Алексей Владимирович</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Мазуров Роман Михайлович</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="n"/>
-      <c r="D35" s="1" t="n"/>
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="n"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E36" s="1" t="n"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Прокопова Мария Валерьевна</t>
+          <t>Мазуров Роман Михайлович</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
@@ -836,21 +866,23 @@
       </c>
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E38" s="1" t="n"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Переверзев Алексей Владимирович</t>
+          <t>Прокопова Мария Валерьевна</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
@@ -858,21 +890,23 @@
       </c>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E40" s="1" t="n"/>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Амбарян Наталия Максимилиановна</t>
+          <t>Переверзев Алексей Владимирович</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
@@ -880,6 +914,7 @@
       </c>
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n"/>
@@ -890,220 +925,804 @@
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="E42" s="1" t="n"/>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Амбарян Наталия Максимилиановна</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="n"/>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+    </row>
+    <row r="46" ht="20" customHeight="1">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Выполенные</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+    </row>
+    <row r="47" ht="20" customHeight="1">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+    </row>
+    <row r="48" ht="20" customHeight="1">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>Всего выполенных</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+    </row>
+    <row r="49" ht="20" customHeight="1">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Саргсян Анна Львовна</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B49" s="1" t="n">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+    </row>
+    <row r="50" ht="20" customHeight="1">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Хаеретдинов Ильдар Рифович</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B50" s="1" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Должиков Сергей Викторович</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B51" s="1" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Андросов Игорь Александрович</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B52" s="1" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>Верхоломов Алексей Владимирович</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B53" s="1" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Переверзев Алексей Владимирович</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B54" s="1" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Разумов Владислав Сергеевич</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B55" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Скоков Евгений Сергеевич</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B56" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Денисенко Александр Михайлович</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B57" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Басов Юрий Викторович</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B58" s="1" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+    </row>
+    <row r="59" ht="20" customHeight="1">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Молодцова Дарья Денисовна</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B59" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+    </row>
+    <row r="60" ht="20" customHeight="1">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Ткаченко Алексей Александрович</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B60" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+    </row>
+    <row r="61" ht="20" customHeight="1">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Жерновая Любовь Васильевна</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B61" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+    </row>
+    <row r="62" ht="20" customHeight="1">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Скоков Алексей Викторович</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B62" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+    </row>
+    <row r="63" ht="20" customHeight="1">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Каказеев Денис Анатольевич</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B63" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+    </row>
+    <row r="64" ht="20" customHeight="1">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Колчебо Роман Григорьевич</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="B64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+    </row>
+    <row r="65" ht="20" customHeight="1">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Рудаков Денис Сергеевич</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="B65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+    </row>
+    <row r="66" ht="20" customHeight="1">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Тарасов Игорь Валерьевич</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+    </row>
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Сводная таблица</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+    </row>
+    <row r="69" ht="20" customHeight="1">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+    </row>
+    <row r="70" ht="20" customHeight="1">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Поручения</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+    </row>
+    <row r="71" ht="20" customHeight="1">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Сотрудник</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Просрочено, отчет отклонен</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>Проверка</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>Выполнено</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>Итог по сотруднику</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Остапенко Полина Николаевна</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Мазуров Роман Михайлович</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Саргсян Анна Львовна</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Денисенко Александр Михайлович</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Хаеретдинов Ильдар Рифович</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Андросов Игорь Александрович</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Прокопова Мария Валерьевна</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Басов Юрий Викторович</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Разумов Владислав Сергеевич</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Жерновая Любовь Васильевна</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Верхоломов Алексей Владимирович</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" ht="20" customHeight="1">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Скоков Евгений Сергеевич</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" ht="20" customHeight="1">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Переверзев Алексей Владимирович</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="20" customHeight="1">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Амбарян Наталия Максимилиановна</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" ht="20" customHeight="1">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Должиков Сергей Викторович</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" ht="20" customHeight="1">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Ткаченко Алексей Александрович</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" ht="20" customHeight="1">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Колчебо Роман Григорьевич</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="20" customHeight="1">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Молодцова Дарья Денисовна</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" ht="20" customHeight="1">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Рудаков Денис Сергеевич</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="20" customHeight="1">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Скоков Алексей Викторович</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" ht="20" customHeight="1">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Каказеев Денис Анатольевич</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="20" customHeight="1">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Тарасов Игорь Валерьевич</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="20" customHeight="1">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/res_prem.xlsx
+++ b/res_prem.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Премия" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Таблица" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Просрочки и закрыто" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +26,83 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="00666600"/>
+    </font>
+    <font>
+      <color rgb="00006600"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00666600"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00006600"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099FFFF"/>
+        <bgColor rgb="0099FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCC99"/>
+        <bgColor rgb="00FFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCC"/>
+        <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCFF99"/>
+        <bgColor rgb="00CCFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000CC"/>
+        <bgColor rgb="000000CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,14 +110,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +543,492 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="41" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Сводная таблица</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Поручения</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Сотрудник</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Просрочено, отчет отклонен</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Проверка</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Выполнено</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Итог по сотруднику</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Остапенко Полина Николаевна</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Мазуров Роман Михайлович</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="n"/>
+      <c r="D6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Саргсян Анна Львовна</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="12" t="n">
+        <v>82</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Денисенко Александр Михайлович</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="n"/>
+      <c r="D8" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Хаеретдинов Ильдар Рифович</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Андросов Игорь Александрович</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="22" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Прокопова Мария Валерьевна</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Басов Юрий Викторович</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="22" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Разумов Владислав Сергеевич</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="n"/>
+      <c r="D13" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="22" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Жерновая Любовь Васильевна</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="22" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Верхоломов Алексей Владимирович</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="n"/>
+      <c r="D15" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="22" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Скоков Евгений Сергеевич</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Переверзев Алексей Владимирович</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="n"/>
+      <c r="D17" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Амбарян Наталия Максимилиановна</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Должиков Сергей Викторович</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" ht="22" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Ткаченко Алексей Александрович</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11" t="n"/>
+      <c r="D20" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Колчебо Роман Григорьевич</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="n"/>
+      <c r="D21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Молодцова Дарья Денисовна</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="n"/>
+      <c r="D22" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Рудаков Денис Сергеевич</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11" t="n"/>
+      <c r="D23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="1">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Скоков Алексей Викторович</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="n"/>
+      <c r="D24" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="1">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Каказеев Денис Анатольевич</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11" t="n"/>
+      <c r="D25" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="1">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>Тарасов Игорь Валерьевич</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11" t="n"/>
+      <c r="D26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="22" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="B27" s="13" t="n">
+        <v>97</v>
+      </c>
+      <c r="C27" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <v>325</v>
+      </c>
+      <c r="E27" s="16" t="n">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,10 +1037,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="33" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="32" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -440,14 +1051,12 @@
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="1" t="n"/>
       <c r="C2" s="1" t="n"/>
       <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
@@ -470,7 +1079,6 @@
           <t>Количество прострочек за месяц</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n"/>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -483,7 +1091,6 @@
       </c>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n"/>
@@ -494,7 +1101,6 @@
       <c r="D5" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="n"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n"/>
@@ -505,7 +1111,6 @@
       <c r="D6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="n"/>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n"/>
@@ -516,7 +1121,6 @@
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="n"/>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
@@ -529,7 +1133,6 @@
       </c>
       <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n"/>
@@ -540,7 +1143,6 @@
       <c r="D9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="n"/>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n"/>
@@ -551,7 +1153,6 @@
       <c r="D10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="n"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
@@ -564,7 +1165,6 @@
       </c>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n"/>
@@ -575,7 +1175,6 @@
       <c r="D12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="n"/>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n"/>
@@ -586,7 +1185,6 @@
       <c r="D13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="n"/>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n"/>
@@ -597,7 +1195,6 @@
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="n"/>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
@@ -610,7 +1207,6 @@
       </c>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n"/>
@@ -621,7 +1217,6 @@
       <c r="D16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="n"/>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n"/>
@@ -632,7 +1227,6 @@
       <c r="D17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="n"/>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n"/>
@@ -643,7 +1237,6 @@
       <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="n"/>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
@@ -656,7 +1249,6 @@
       </c>
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n"/>
@@ -667,7 +1259,6 @@
       <c r="D20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="n"/>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n"/>
@@ -678,7 +1269,6 @@
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="n"/>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
@@ -691,7 +1281,6 @@
       </c>
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n"/>
@@ -702,7 +1291,6 @@
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="n"/>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n"/>
@@ -713,7 +1301,6 @@
       <c r="D24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="1" t="n"/>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n"/>
@@ -724,7 +1311,6 @@
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="n"/>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
@@ -737,7 +1323,6 @@
       </c>
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1" t="n"/>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n"/>
@@ -748,7 +1333,6 @@
       <c r="D27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="n"/>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n"/>
@@ -759,7 +1343,6 @@
       <c r="D28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="n"/>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
@@ -772,7 +1355,6 @@
       </c>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n"/>
@@ -783,7 +1365,6 @@
       <c r="D30" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="n"/>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
@@ -796,7 +1377,6 @@
       </c>
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="n"/>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n"/>
@@ -807,7 +1387,6 @@
       <c r="D32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="n"/>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n"/>
@@ -818,7 +1397,6 @@
       <c r="D33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="n"/>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
@@ -831,7 +1409,6 @@
       </c>
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n"/>
@@ -842,7 +1419,6 @@
       <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="n"/>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n"/>
@@ -853,7 +1429,6 @@
       <c r="D36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="n"/>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
@@ -866,7 +1441,6 @@
       </c>
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="n"/>
-      <c r="E37" s="1" t="n"/>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n"/>
@@ -877,7 +1451,6 @@
       <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="1" t="n"/>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
@@ -890,7 +1463,6 @@
       </c>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n"/>
@@ -901,7 +1473,6 @@
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="1" t="n"/>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
@@ -914,7 +1485,6 @@
       </c>
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n"/>
@@ -925,7 +1495,6 @@
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
@@ -938,7 +1507,6 @@
       </c>
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="n"/>
-      <c r="E43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n"/>
@@ -949,14 +1517,12 @@
       <c r="D44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="1" t="n"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="n"/>
-      <c r="E45" s="1" t="n"/>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
@@ -967,14 +1533,12 @@
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="n"/>
-      <c r="E46" s="1" t="n"/>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="n"/>
       <c r="D47" s="1" t="n"/>
-      <c r="E47" s="1" t="n"/>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
@@ -989,7 +1553,6 @@
       </c>
       <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="n"/>
-      <c r="E48" s="1" t="n"/>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
@@ -1002,7 +1565,6 @@
       </c>
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="1" t="n"/>
-      <c r="E49" s="1" t="n"/>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
@@ -1015,7 +1577,6 @@
       </c>
       <c r="C50" s="1" t="n"/>
       <c r="D50" s="1" t="n"/>
-      <c r="E50" s="1" t="n"/>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
@@ -1028,7 +1589,6 @@
       </c>
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="1" t="n"/>
-      <c r="E51" s="1" t="n"/>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
@@ -1041,7 +1601,6 @@
       </c>
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
-      <c r="E52" s="1" t="n"/>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
@@ -1054,7 +1613,6 @@
       </c>
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="n"/>
-      <c r="E53" s="1" t="n"/>
     </row>
     <row r="54" ht="20" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
@@ -1067,7 +1625,6 @@
       </c>
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="n"/>
-      <c r="E54" s="1" t="n"/>
     </row>
     <row r="55" ht="20" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
@@ -1080,7 +1637,6 @@
       </c>
       <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="n"/>
-      <c r="E55" s="1" t="n"/>
     </row>
     <row r="56" ht="20" customHeight="1">
       <c r="A56" s="1" t="inlineStr">
@@ -1093,7 +1649,6 @@
       </c>
       <c r="C56" s="1" t="n"/>
       <c r="D56" s="1" t="n"/>
-      <c r="E56" s="1" t="n"/>
     </row>
     <row r="57" ht="20" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
@@ -1106,7 +1661,6 @@
       </c>
       <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="n"/>
-      <c r="E57" s="1" t="n"/>
     </row>
     <row r="58" ht="20" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
@@ -1119,7 +1673,6 @@
       </c>
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="n"/>
-      <c r="E58" s="1" t="n"/>
     </row>
     <row r="59" ht="20" customHeight="1">
       <c r="A59" s="1" t="inlineStr">
@@ -1132,7 +1685,6 @@
       </c>
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="n"/>
-      <c r="E59" s="1" t="n"/>
     </row>
     <row r="60" ht="20" customHeight="1">
       <c r="A60" s="1" t="inlineStr">
@@ -1145,7 +1697,6 @@
       </c>
       <c r="C60" s="1" t="n"/>
       <c r="D60" s="1" t="n"/>
-      <c r="E60" s="1" t="n"/>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" s="1" t="inlineStr">
@@ -1158,7 +1709,6 @@
       </c>
       <c r="C61" s="1" t="n"/>
       <c r="D61" s="1" t="n"/>
-      <c r="E61" s="1" t="n"/>
     </row>
     <row r="62" ht="20" customHeight="1">
       <c r="A62" s="1" t="inlineStr">
@@ -1171,7 +1721,6 @@
       </c>
       <c r="C62" s="1" t="n"/>
       <c r="D62" s="1" t="n"/>
-      <c r="E62" s="1" t="n"/>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" s="1" t="inlineStr">
@@ -1184,7 +1733,6 @@
       </c>
       <c r="C63" s="1" t="n"/>
       <c r="D63" s="1" t="n"/>
-      <c r="E63" s="1" t="n"/>
     </row>
     <row r="64" ht="20" customHeight="1">
       <c r="A64" s="1" t="inlineStr">
@@ -1197,7 +1745,6 @@
       </c>
       <c r="C64" s="1" t="n"/>
       <c r="D64" s="1" t="n"/>
-      <c r="E64" s="1" t="n"/>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" s="1" t="inlineStr">
@@ -1210,7 +1757,6 @@
       </c>
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="1" t="n"/>
-      <c r="E65" s="1" t="n"/>
     </row>
     <row r="66" ht="20" customHeight="1">
       <c r="A66" s="1" t="inlineStr">
@@ -1223,507 +1769,6 @@
       </c>
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="1" t="n"/>
-      <c r="E66" s="1" t="n"/>
-    </row>
-    <row r="67" ht="20" customHeight="1">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
-      <c r="D67" s="1" t="n"/>
-      <c r="E67" s="1" t="n"/>
-    </row>
-    <row r="68" ht="20" customHeight="1">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Сводная таблица</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
-      <c r="D68" s="1" t="n"/>
-      <c r="E68" s="1" t="n"/>
-    </row>
-    <row r="69" ht="20" customHeight="1">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
-      <c r="D69" s="1" t="n"/>
-      <c r="E69" s="1" t="n"/>
-    </row>
-    <row r="70" ht="20" customHeight="1">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>Поручения</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="n"/>
-      <c r="D70" s="1" t="n"/>
-      <c r="E70" s="1" t="n"/>
-    </row>
-    <row r="71" ht="20" customHeight="1">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Сотрудник</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>Просрочено, отчет отклонен</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>Проверка</t>
-        </is>
-      </c>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>Выполнено</t>
-        </is>
-      </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t>Итог по сотруднику</t>
-        </is>
-      </c>
-    </row>
-    <row r="72" ht="20" customHeight="1">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Остапенко Полина Николаевна</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" ht="20" customHeight="1">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Мазуров Роман Михайлович</t>
-        </is>
-      </c>
-      <c r="B73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" ht="20" customHeight="1">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Саргсян Анна Львовна</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" ht="20" customHeight="1">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Денисенко Александр Михайлович</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" ht="20" customHeight="1">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Хаеретдинов Ильдар Рифович</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" ht="20" customHeight="1">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Андросов Игорь Александрович</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" ht="20" customHeight="1">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Прокопова Мария Валерьевна</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" ht="20" customHeight="1">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Басов Юрий Викторович</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" ht="20" customHeight="1">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Разумов Владислав Сергеевич</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" ht="20" customHeight="1">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Жерновая Любовь Васильевна</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" ht="20" customHeight="1">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Верхоломов Алексей Владимирович</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" ht="20" customHeight="1">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Скоков Евгений Сергеевич</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" ht="20" customHeight="1">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Переверзев Алексей Владимирович</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" ht="20" customHeight="1">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Амбарян Наталия Максимилиановна</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" ht="20" customHeight="1">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Должиков Сергей Викторович</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" ht="20" customHeight="1">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Ткаченко Алексей Александрович</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" ht="20" customHeight="1">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Колчебо Роман Григорьевич</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" ht="20" customHeight="1">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Молодцова Дарья Денисовна</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" ht="20" customHeight="1">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Рудаков Денис Сергеевич</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" ht="20" customHeight="1">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>Скоков Алексей Викторович</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" ht="20" customHeight="1">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>Каказеев Денис Анатольевич</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" ht="20" customHeight="1">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Тарасов Игорь Валерьевич</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" ht="20" customHeight="1">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="C94" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>427</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
